--- a/data/AdvaniSummersTarrant_UKTopIncomes_WIDTechnicalNote_Data.xlsx
+++ b/data/AdvaniSummersTarrant_UKTopIncomes_WIDTechnicalNote_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sandbox\MeasuringTopIncomes\Drafts\WID technical note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_user\Documents\WorkHD\MeasuringTopIncomes\Drafts\WID technical note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA5E020-925B-4989-B3CA-7953DBDD5950}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD80288-4A2A-431A-BDF7-3C151641A264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E551DC49-9B49-4831-9479-62EF28A1AA56}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{E551DC49-9B49-4831-9479-62EF28A1AA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t xml:space="preserve">Population control </t>
   </si>
@@ -226,6 +226,9 @@
       </rPr>
       <t>CAGE Working Paper 490.</t>
     </r>
+  </si>
+  <si>
+    <t>Pre-tax top shares including realised capital gains (%)</t>
   </si>
 </sst>
 </file>
@@ -633,28 +636,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D16E31D-3752-4785-A482-63241B25E6C6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -669,19 +672,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B050249-AC1A-4916-89CB-E5D85F721C0B}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -689,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -697,7 +702,7 @@
         <v>46802000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -705,7 +710,7 @@
         <v>46919000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -713,7 +718,7 @@
         <v>47071000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -721,7 +726,7 @@
         <v>47347000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -729,7 +734,7 @@
         <v>47652000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -737,7 +742,7 @@
         <v>48007000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -745,7 +750,7 @@
         <v>48306000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -753,7 +758,7 @@
         <v>48625000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -761,7 +766,7 @@
         <v>48980000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -769,7 +774,7 @@
         <v>49436000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -777,7 +782,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -785,7 +790,7 @@
         <v>50266000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -793,7 +798,7 @@
         <v>50648000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -801,7 +806,7 @@
         <v>50996000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -809,7 +814,7 @@
         <v>51781000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -817,7 +822,7 @@
         <v>52169000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -825,7 +830,7 @@
         <v>52491000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -833,7 +838,7 @@
         <v>52798000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -841,7 +846,7 @@
         <v>53189000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -849,7 +854,7 @@
         <v>53579000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -857,7 +862,7 @@
         <v>53971000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -874,21 +879,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFAD970-F2A8-417F-BA00-3675A5F0FD66}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -902,7 +909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -916,7 +923,7 @@
         <v>475775.41832882259</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -930,7 +937,7 @@
         <v>512360.14740859123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -944,7 +951,7 @@
         <v>553485.24783381331</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -958,7 +965,7 @@
         <v>588475.37561024958</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -972,7 +979,7 @@
         <v>642701.88957921998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -986,7 +993,7 @@
         <v>657324.1283558266</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1000,77 +1007,77 @@
         <v>679903.84584996663</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>665043.00881768379</v>
+        <v>665033.58865569381</v>
       </c>
       <c r="C10" s="7">
-        <v>521057.01517582388</v>
+        <v>521047.59501383384</v>
       </c>
       <c r="D10" s="7">
-        <v>680784.6048215779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+        <v>680775.18465958792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7">
-        <v>729676.73521579045</v>
+        <v>729672.15384509147</v>
       </c>
       <c r="C11" s="7">
-        <v>570425.17541876272</v>
+        <v>570420.59404806374</v>
       </c>
       <c r="D11" s="7">
-        <v>750581.02736095525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+        <v>750576.44599025627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7">
-        <v>796671.38244668429</v>
+        <v>796668.35196319094</v>
       </c>
       <c r="C12" s="7">
-        <v>619351.63912610849</v>
+        <v>619348.60864261515</v>
       </c>
       <c r="D12" s="7">
-        <v>824642.52017844282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+        <v>824639.48969494947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7">
-        <v>849293.0597314419</v>
+        <v>849287.20391328097</v>
       </c>
       <c r="C13" s="7">
-        <v>658671.89183428232</v>
+        <v>658666.03601612139</v>
       </c>
       <c r="D13" s="7">
-        <v>888508.13623853575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+        <v>888502.28042037482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7">
-        <v>912832.12943556567</v>
+        <v>912828.67688211065</v>
       </c>
       <c r="C14" s="7">
-        <v>706538.43952790066</v>
+        <v>706534.98697444552</v>
       </c>
       <c r="D14" s="7">
-        <v>979449.30328140978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+        <v>979445.85072795476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +1085,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1092,7 +1099,7 @@
         <v>944970.65818269958</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1106,21 +1113,21 @@
         <v>937790.57297153433</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7">
-        <v>951379.77637976001</v>
+        <v>951249.36885674007</v>
       </c>
       <c r="C18" s="7">
-        <v>748241.92215769459</v>
+        <v>748113.13546705153</v>
       </c>
       <c r="D18" s="7">
-        <v>971674.11486475996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+        <v>971543.70734174002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>997078.64674919215</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1155,7 @@
         <v>1055037.1927074227</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1169,7 @@
         <v>1088818.1943148733</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1176,32 +1183,32 @@
         <v>1161857.8462745005</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7">
-        <v>1141120.4247505369</v>
+        <v>1141089.8431397646</v>
       </c>
       <c r="C23" s="7">
-        <v>913625.00406573317</v>
+        <v>913595.30168744014</v>
       </c>
       <c r="D23" s="7">
-        <v>1188979.8274715368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+        <v>1188949.2458607645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="7">
-        <v>1178067.1564204372</v>
+        <v>1178067.578536235</v>
       </c>
       <c r="C24" s="7">
-        <v>951724.14547876501</v>
+        <v>951723.70502621564</v>
       </c>
       <c r="D24" s="7">
-        <v>1232781.0068664372</v>
+        <v>1232781.428982235</v>
       </c>
     </row>
   </sheetData>
@@ -1213,16 +1220,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71C1347-5E75-4519-8281-C6C5016E9046}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>2.9894690151757768</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>3.085618269301027</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>3.3631285289156549</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>3.4466272731861993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>3.5336815884218589</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>3.3408685437959078</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1406,122 +1415,122 @@
         <v>3.1353475808446585</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>41.105288775372365</v>
+        <v>41.105871029390073</v>
       </c>
       <c r="C10" s="6">
-        <v>28.71994922988133</v>
+        <v>28.720356046286852</v>
       </c>
       <c r="D10" s="6">
-        <v>13.143299512750305</v>
+        <v>13.143485686821215</v>
       </c>
       <c r="E10" s="6">
-        <v>9.5249935662154765</v>
+        <v>9.5251284871937223</v>
       </c>
       <c r="F10" s="6">
-        <v>4.5672898541022793</v>
+        <v>4.5673545494966392</v>
       </c>
       <c r="G10" s="6">
-        <v>3.2922072129691133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.2922538468922409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>40.610642321823939</v>
+        <v>40.610897302647615</v>
       </c>
       <c r="C11" s="6">
-        <v>28.400119367337957</v>
+        <v>28.400297682316857</v>
       </c>
       <c r="D11" s="6">
-        <v>13.219887720224758</v>
+        <v>13.219970723537857</v>
       </c>
       <c r="E11" s="6">
-        <v>9.6260285163658317</v>
+        <v>9.6260889550227819</v>
       </c>
       <c r="F11" s="6">
-        <v>4.6752995553078511</v>
+        <v>4.6753289099711459</v>
       </c>
       <c r="G11" s="6">
-        <v>3.4002115754502533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.4002329242568372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>41.411176210399233</v>
+        <v>41.411333736282671</v>
       </c>
       <c r="C12" s="6">
-        <v>29.402105383363001</v>
+        <v>29.402217227387951</v>
       </c>
       <c r="D12" s="6">
-        <v>14.143589612007402</v>
+        <v>14.143643413460353</v>
       </c>
       <c r="E12" s="6">
-        <v>10.405003548615493</v>
+        <v>10.405043128688462</v>
       </c>
       <c r="F12" s="6">
-        <v>5.1469015659855462</v>
+        <v>5.1469211445218335</v>
       </c>
       <c r="G12" s="6">
-        <v>3.7632831099424009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.7632974252686182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>41.839508664321876</v>
+        <v>41.8397971468912</v>
       </c>
       <c r="C13" s="6">
-        <v>29.990063039797679</v>
+        <v>29.990269820678147</v>
       </c>
       <c r="D13" s="6">
-        <v>14.794043154198928</v>
+        <v>14.79414515882843</v>
       </c>
       <c r="E13" s="6">
-        <v>10.998239267927159</v>
+        <v>10.998315100565337</v>
       </c>
       <c r="F13" s="6">
-        <v>5.5632276243514225</v>
+        <v>5.5632659826938138</v>
       </c>
       <c r="G13" s="6">
-        <v>4.088443001492517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+        <v>4.0884711912246452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>41.986715533891257</v>
+        <v>41.986874338476888</v>
       </c>
       <c r="C14" s="6">
-        <v>30.316612821783053</v>
+        <v>30.316727487030754</v>
       </c>
       <c r="D14" s="6">
-        <v>15.22323473863789</v>
+        <v>15.223292316837419</v>
       </c>
       <c r="E14" s="6">
-        <v>11.43409744333024</v>
+        <v>11.434140690035379</v>
       </c>
       <c r="F14" s="6">
-        <v>5.9666871041610179</v>
+        <v>5.9667096717103272</v>
       </c>
       <c r="G14" s="6">
-        <v>4.4486422699858803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+        <v>4.4486590958981553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1541,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>4.9806237841522183</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1578,30 +1587,30 @@
         <v>3.7505191133818787</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>40.955917325301726</v>
+        <v>40.961532004171708</v>
       </c>
       <c r="C18" s="6">
-        <v>28.898026149692278</v>
+        <v>28.901987802791588</v>
       </c>
       <c r="D18" s="6">
-        <v>13.552038078205351</v>
+        <v>13.553895937748297</v>
       </c>
       <c r="E18" s="6">
-        <v>9.949404619262701</v>
+        <v>9.9507685909555086</v>
       </c>
       <c r="F18" s="6">
-        <v>5.0329303547485695</v>
+        <v>5.0336203231234062</v>
       </c>
       <c r="G18" s="6">
-        <v>3.7375871608008557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.7380995495599638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>3.5482221300327761</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1656,7 @@
         <v>4.4236816132654591</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1670,7 +1679,7 @@
         <v>4.2020289855531354</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1693,30 +1702,30 @@
         <v>4.6634865580347729</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="6">
-        <v>40.467607244095966</v>
+        <v>40.468691790261254</v>
       </c>
       <c r="C23" s="6">
-        <v>28.98870306351138</v>
+        <v>28.98947997099085</v>
       </c>
       <c r="D23" s="6">
-        <v>14.113600820463029</v>
+        <v>14.11397906994924</v>
       </c>
       <c r="E23" s="6">
-        <v>10.617640908514375</v>
+        <v>10.617925465040345</v>
       </c>
       <c r="F23" s="6">
-        <v>5.5944132658847989</v>
+        <v>5.5945631981359929</v>
       </c>
       <c r="G23" s="6">
-        <v>4.2100420342299545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+        <v>4.2101548648432487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1748,16 +1757,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677A3F08-2064-478E-BD14-112C99177F39}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1803,7 +1814,7 @@
         <v>2.3921695530320535</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>2.5787135352231561</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1860,7 @@
         <v>2.6993255170704655</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>2.7327511426963289</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>2.8045192321410797</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1918,7 +1929,7 @@
         <v>2.6912376702580234</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1941,122 +1952,122 @@
         <v>2.5336722475114741</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>37.05552552284697</v>
+        <v>37.05619545982853</v>
       </c>
       <c r="C10" s="6">
-        <v>25.074733996272293</v>
+        <v>25.075187329246791</v>
       </c>
       <c r="D10" s="6">
-        <v>10.90711297495559</v>
+        <v>10.907310167634437</v>
       </c>
       <c r="E10" s="6">
-        <v>7.8231263228191024</v>
+        <v>7.8232677592597168</v>
       </c>
       <c r="F10" s="6">
-        <v>3.7248473549141128</v>
+        <v>3.7249146974482827</v>
       </c>
       <c r="G10" s="6">
-        <v>2.6915555986755311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+        <v>2.6916042600454086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>36.602412661715142</v>
+        <v>36.602706636411412</v>
       </c>
       <c r="C11" s="6">
-        <v>24.761708810930411</v>
+        <v>24.761907686231176</v>
       </c>
       <c r="D11" s="6">
-        <v>10.949554187544571</v>
+        <v>10.949642129612661</v>
       </c>
       <c r="E11" s="6">
-        <v>7.882963879290827</v>
+        <v>7.8830271918361916</v>
       </c>
       <c r="F11" s="6">
-        <v>3.7846221569560132</v>
+        <v>3.7846525533989848</v>
       </c>
       <c r="G11" s="6">
-        <v>2.7474908898727399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+        <v>2.7475129565273977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>37.352925653435584</v>
+        <v>37.353108421949216</v>
       </c>
       <c r="C12" s="6">
-        <v>25.64979676302454</v>
+        <v>25.649922267925358</v>
       </c>
       <c r="D12" s="6">
-        <v>11.76350609320067</v>
+        <v>11.763563652240187</v>
       </c>
       <c r="E12" s="6">
-        <v>8.5675060017176854</v>
+        <v>8.5675479226732758</v>
       </c>
       <c r="F12" s="6">
-        <v>4.1963164902965708</v>
+        <v>4.1963370229460013</v>
       </c>
       <c r="G12" s="6">
-        <v>3.0657825928417362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.0657975937691817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>37.817930836552229</v>
+        <v>37.818267053867366</v>
       </c>
       <c r="C13" s="6">
-        <v>26.242261260195097</v>
+        <v>26.242494564937818</v>
       </c>
       <c r="D13" s="6">
-        <v>12.406657986710009</v>
+        <v>12.406768287118989</v>
       </c>
       <c r="E13" s="6">
-        <v>9.1454267970180645</v>
+        <v>9.1455081037097692</v>
       </c>
       <c r="F13" s="6">
-        <v>4.5872768845962124</v>
+        <v>4.5873176674175831</v>
       </c>
       <c r="G13" s="6">
-        <v>3.3621807574134084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.3622106486148109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>37.871480056531823</v>
+        <v>37.871665119284167</v>
       </c>
       <c r="C14" s="6">
-        <v>26.446929480130166</v>
+        <v>26.447058715680335</v>
       </c>
       <c r="D14" s="6">
-        <v>12.731666577243725</v>
+        <v>12.731728791798194</v>
       </c>
       <c r="E14" s="6">
-        <v>9.4798041696220654</v>
+        <v>9.4798504936275894</v>
       </c>
       <c r="F14" s="6">
-        <v>4.9034185711519678</v>
+        <v>4.9034425321942976</v>
       </c>
       <c r="G14" s="6">
-        <v>3.6428025177684948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.6428203186851529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2067,7 +2078,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2101,7 @@
         <v>4.0489230385635926</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2113,30 +2124,30 @@
         <v>2.7029683170658991</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>36.020470498701449</v>
+        <v>36.026671375241378</v>
       </c>
       <c r="C18" s="6">
-        <v>24.247417761290194</v>
+        <v>24.251591922312198</v>
       </c>
       <c r="D18" s="6">
-        <v>10.369769423611089</v>
+        <v>10.371554565755352</v>
       </c>
       <c r="E18" s="6">
-        <v>7.4050030630809012</v>
+        <v>7.4062778246022321</v>
       </c>
       <c r="F18" s="6">
-        <v>3.6047716862249759</v>
+        <v>3.6053922429215284</v>
       </c>
       <c r="G18" s="6">
-        <v>2.6575912568164846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+        <v>2.6580487576500098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>2.495355268762371</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +2193,7 @@
         <v>3.2528286222654206</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2216,7 @@
         <v>3.0964547390114787</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2228,50 +2239,50 @@
         <v>3.450870955067336</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="6">
-        <v>35.270154487033039</v>
+        <v>35.271301173611981</v>
       </c>
       <c r="C23" s="6">
-        <v>24.001958285537437</v>
+        <v>24.002738625851638</v>
       </c>
       <c r="D23" s="6">
-        <v>10.71433810890964</v>
+        <v>10.714686448402064</v>
       </c>
       <c r="E23" s="6">
-        <v>7.9102991008761077</v>
+        <v>7.9105562767786886</v>
       </c>
       <c r="F23" s="6">
-        <v>4.1134902772054147</v>
+        <v>4.1136240130555146</v>
       </c>
       <c r="G23" s="6">
-        <v>3.1048792994770387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+        <v>3.104980243844131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>35.175177611296981</v>
+        <v>35.175148455512847</v>
       </c>
       <c r="C24" s="6">
-        <v>24.01094639255297</v>
+        <v>24.010956597880977</v>
       </c>
       <c r="D24" s="6">
-        <v>10.928024659749283</v>
+        <v>10.928029616428191</v>
       </c>
       <c r="E24" s="6">
-        <v>8.1105189098581398</v>
+        <v>8.1105226199284584</v>
       </c>
       <c r="F24" s="6">
-        <v>4.2733624977973657</v>
+        <v>4.2733644653872629</v>
       </c>
       <c r="G24" s="6">
-        <v>3.2469666110422448</v>
+        <v>3.2469681099663132</v>
       </c>
     </row>
   </sheetData>
@@ -2283,16 +2294,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5AA7C3-FB7F-4983-AAAA-7EEF196A1E6E}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>2.1702854322229599</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2334,7 +2347,7 @@
         <v>2.2160337853221361</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2361,7 @@
         <v>3.4697240133409442</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2362,7 +2375,7 @@
         <v>3.0346658737304941</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2389,7 @@
         <v>2.3832004230393857</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2403,7 @@
         <v>1.7826476380430927</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2404,77 +2417,77 @@
         <v>2.3909372766487413</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>14.338014061656679</v>
+        <v>14.338212462565112</v>
       </c>
       <c r="C10" s="6">
-        <v>5.6630096157766827</v>
+        <v>5.6630879771346372</v>
       </c>
       <c r="D10" s="6">
-        <v>2.2231973863499754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+        <v>2.2232281496327553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>14.761505950948575</v>
+        <v>14.761596052271628</v>
       </c>
       <c r="C11" s="6">
-        <v>5.9920869299126469</v>
+        <v>5.9921235044303174</v>
       </c>
       <c r="D11" s="6">
-        <v>2.4010578192315832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+        <v>2.4010724748152996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>15.471745026558912</v>
+        <v>15.471801883971761</v>
       </c>
       <c r="C12" s="6">
-        <v>6.7821484521304454</v>
+        <v>6.7821733759780054</v>
       </c>
       <c r="D12" s="6">
-        <v>2.9433099917782926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+        <v>2.9433208082046911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>16.906571519572243</v>
+        <v>16.906682945069651</v>
       </c>
       <c r="C13" s="6">
-        <v>7.9730577355506602</v>
+        <v>7.9731102832788032</v>
       </c>
       <c r="D13" s="6">
-        <v>3.7228012759795477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+        <v>3.7228258117042183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>18.917807518415497</v>
+        <v>18.917874203818943</v>
       </c>
       <c r="C14" s="6">
-        <v>9.8614938648871515</v>
+        <v>9.861528626721805</v>
       </c>
       <c r="D14" s="6">
-        <v>4.96885385727236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+        <v>4.9688713725168627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2482,7 +2495,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +2509,7 @@
         <v>3.7440315943820206</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2510,21 +2523,21 @@
         <v>2.5122879968121774</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>14.377248283437478</v>
+        <v>14.379178100204667</v>
       </c>
       <c r="C18" s="6">
-        <v>5.9546713362898522</v>
+        <v>5.9554706147304364</v>
       </c>
       <c r="D18" s="6">
-        <v>2.3938066934341853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+        <v>2.3941280072352225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2551,7 @@
         <v>2.3067387988888988</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +2565,7 @@
         <v>2.986624568100718</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2566,7 +2579,7 @@
         <v>3.1906153094603416</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2580,32 +2593,32 @@
         <v>3.5847758943618455</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="6">
-        <v>16.425846384233573</v>
+        <v>16.426268882370039</v>
       </c>
       <c r="C23" s="6">
-        <v>7.7074478374355584</v>
+        <v>7.7076460848970321</v>
       </c>
       <c r="D23" s="6">
-        <v>3.4256258229894185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+        <v>3.425713935375994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>17.245560956556307</v>
+        <v>17.245555051516245</v>
       </c>
       <c r="C24" s="6">
-        <v>8.2658638827520576</v>
+        <v>8.2658610524435812</v>
       </c>
       <c r="D24" s="6">
-        <v>3.6811079784032228</v>
+        <v>3.6811067179577011</v>
       </c>
     </row>
   </sheetData>

--- a/data/AdvaniSummersTarrant_UKTopIncomes_WIDTechnicalNote_Data.xlsx
+++ b/data/AdvaniSummersTarrant_UKTopIncomes_WIDTechnicalNote_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_user\Documents\WorkHD\MeasuringTopIncomes\Drafts\WID technical note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_user\Documents\WorkHD\Paper_MeasuringTopIncomes\Drafts\WID technical note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD80288-4A2A-431A-BDF7-3C151641A264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E0F4E5-FD93-4415-8D27-716802AC23B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{E551DC49-9B49-4831-9479-62EF28A1AA56}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E551DC49-9B49-4831-9479-62EF28A1AA56}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Post-tax top shares exc. CG" sheetId="4" r:id="rId5"/>
     <sheet name="Pre-tax top shares inc. CG" sheetId="5" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
   <si>
     <t xml:space="preserve">Population control </t>
   </si>
@@ -230,6 +233,9 @@
   <si>
     <t>Pre-tax top shares including realised capital gains (%)</t>
   </si>
+  <si>
+    <t>2018-19</t>
+  </si>
 </sst>
 </file>
 
@@ -237,8 +243,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -300,29 +306,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{D2664C17-3FBA-43DE-8258-2B07213464E1}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -335,6 +337,141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Contents"/>
+      <sheetName val="Population control total"/>
+      <sheetName val="Income control totals"/>
+      <sheetName val="Pre-tax top shares exc. CG"/>
+      <sheetName val="Post-tax top shares exc. CG"/>
+      <sheetName val="Pre-tax top shares inc. CG"/>
+      <sheetName val="CG aggregates"/>
+      <sheetName val="OF Table_1a"/>
+      <sheetName val="OF State_Pension"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="4">
+          <cell r="B4">
+            <v>10471.64339798909</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>9173.3452249517559</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>15750.869448908297</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>13594.179139111053</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>12133.155388962425</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>6547.5616312040629</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>16236.493130732426</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>15741.596003894087</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>20904.292145164833</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>27971.13773175851</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>39215.076507093851</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>66617.173845844067</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>18650.140097</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>23110.363172000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>20294.338485</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>20611.540849000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>29844.363324000002</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>37276.171072999998</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>45563.099870999999</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>47859.402720999999</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>54713.850445999997</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D16E31D-3752-4785-A482-63241B25E6C6}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -670,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B050249-AC1A-4916-89CB-E5D85F721C0B}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -698,176 +835,184 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>46802000</v>
+      <c r="B3" s="4">
+        <v>46882387</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>46919000</v>
+      <c r="B4" s="4">
+        <v>47019534</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>47071000</v>
+      <c r="B5" s="4">
+        <v>47183869</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>47347000</v>
+      <c r="B6" s="4">
+        <v>47399683</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>47652000</v>
+      <c r="B7" s="4">
+        <v>47682430</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>48007000</v>
+      <c r="B8" s="4">
+        <v>48006375</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>48306000</v>
+      <c r="B9" s="4">
+        <v>48329512</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>48625000</v>
+      <c r="B10" s="4">
+        <v>48660278</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>48980000</v>
+      <c r="B11" s="4">
+        <v>49011959</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>49436000</v>
+      <c r="B12" s="4">
+        <v>49506853</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>49850000</v>
+      <c r="B13" s="4">
+        <v>49957988</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>50266000</v>
+      <c r="B14" s="4">
+        <v>50434191</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
-        <v>50648000</v>
+      <c r="B15" s="4">
+        <v>50886632</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
-        <v>50996000</v>
+      <c r="B16" s="4">
+        <v>51278250</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
-        <v>51781000</v>
+      <c r="B17" s="4">
+        <v>51706249</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
-        <v>52169000</v>
+      <c r="B18" s="4">
+        <v>52168942</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
-        <v>52491000</v>
+      <c r="B19" s="4">
+        <v>52491310</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
-        <v>52798000</v>
+      <c r="B20" s="4">
+        <v>52798440</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
-        <v>53189000</v>
+      <c r="B21" s="4">
+        <v>53189228</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5">
-        <v>53579000</v>
+      <c r="B22" s="4">
+        <v>53579245</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
-        <v>53971000</v>
+      <c r="B23" s="4">
+        <v>53971222</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5">
-        <v>54233000</v>
+      <c r="B24" s="4">
+        <v>54232656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4">
+        <v>54524104</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFAD970-F2A8-417F-BA00-3675A5F0FD66}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="B3:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -913,302 +1058,338 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <v>465303.77493083349</v>
-      </c>
-      <c r="C3" s="7">
-        <v>366483.28979292256</v>
-      </c>
-      <c r="D3" s="7">
-        <v>475775.41832882259</v>
+      <c r="B3" s="4">
+        <v>465318.39037662232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>366498.43219835853</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3+'[1]CG aggregates'!B4</f>
+        <v>475790.03377461142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
-        <v>503186.80218363949</v>
-      </c>
-      <c r="C4" s="7">
-        <v>399102.85399256955</v>
-      </c>
-      <c r="D4" s="7">
-        <v>512360.14740859123</v>
+      <c r="B4" s="4">
+        <v>503185.83913862548</v>
+      </c>
+      <c r="C4" s="4">
+        <v>399102.99561795365</v>
+      </c>
+      <c r="D4" s="4">
+        <f>B4+'[1]CG aggregates'!B5</f>
+        <v>512359.18436357722</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>537734.37838490505</v>
-      </c>
-      <c r="C5" s="7">
-        <v>423901.49253537011</v>
-      </c>
-      <c r="D5" s="7">
-        <v>553485.24783381331</v>
+      <c r="B5" s="4">
+        <v>535922.86113955907</v>
+      </c>
+      <c r="C5" s="4">
+        <v>422460.02708898368</v>
+      </c>
+      <c r="D5" s="4">
+        <f>B5+'[1]CG aggregates'!B6</f>
+        <v>551673.73058846733</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
-        <v>574881.19647113851</v>
-      </c>
-      <c r="C6" s="7">
-        <v>455497.93569420581</v>
-      </c>
-      <c r="D6" s="7">
-        <v>588475.37561024958</v>
+      <c r="B6" s="4">
+        <v>572905.61827873182</v>
+      </c>
+      <c r="C6" s="4">
+        <v>453926.9078199201</v>
+      </c>
+      <c r="D6" s="4">
+        <f>B6+'[1]CG aggregates'!B7</f>
+        <v>586499.7974178429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
-        <v>630568.7341902575</v>
-      </c>
-      <c r="C7" s="7">
-        <v>496639.90682930499</v>
-      </c>
-      <c r="D7" s="7">
-        <v>642701.88957921998</v>
+      <c r="B7" s="4">
+        <v>629442.7762388672</v>
+      </c>
+      <c r="C7" s="4">
+        <v>495777.32914214395</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B7+'[1]CG aggregates'!B8</f>
+        <v>641575.93162782968</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>650776.56672462251</v>
-      </c>
-      <c r="C8" s="7">
-        <v>514713.49074826669</v>
-      </c>
-      <c r="D8" s="7">
-        <v>657324.1283558266</v>
+      <c r="B8" s="4">
+        <v>648689.78366088227</v>
+      </c>
+      <c r="C8" s="4">
+        <v>513056.56432848546</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B8+'[1]CG aggregates'!B9</f>
+        <v>655237.34529208636</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <v>663667.35271923419</v>
-      </c>
-      <c r="C9" s="7">
-        <v>525219.92368014192</v>
-      </c>
-      <c r="D9" s="7">
-        <v>679903.84584996663</v>
+      <c r="B9" s="4">
+        <v>659902.88461775379</v>
+      </c>
+      <c r="C9" s="4">
+        <v>522384.30354615382</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B9+'[1]CG aggregates'!B10</f>
+        <v>676139.37774848624</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
-        <v>665033.58865569381</v>
-      </c>
-      <c r="C10" s="7">
-        <v>521047.59501383384</v>
-      </c>
-      <c r="D10" s="7">
-        <v>680775.18465958792</v>
+      <c r="B10" s="4">
+        <v>662388.70397027163</v>
+      </c>
+      <c r="C10" s="4">
+        <v>518985.38337771874</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B10+'[1]CG aggregates'!B11</f>
+        <v>678130.29997416574</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7">
-        <v>729672.15384509147</v>
-      </c>
-      <c r="C11" s="7">
-        <v>570420.59404806374</v>
-      </c>
-      <c r="D11" s="7">
-        <v>750576.44599025627</v>
+      <c r="B11" s="4">
+        <v>725985.57884739956</v>
+      </c>
+      <c r="C11" s="4">
+        <v>567559.83419048251</v>
+      </c>
+      <c r="D11" s="4">
+        <f>B11+'[1]CG aggregates'!B12</f>
+        <v>746889.87099256436</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
-        <v>796668.35196319094</v>
-      </c>
-      <c r="C12" s="7">
-        <v>619348.60864261515</v>
-      </c>
-      <c r="D12" s="7">
-        <v>824639.48969494947</v>
+      <c r="B12" s="4">
+        <v>791608.05105253553</v>
+      </c>
+      <c r="C12" s="4">
+        <v>615523.13678486447</v>
+      </c>
+      <c r="D12" s="4">
+        <f>B12+'[1]CG aggregates'!B13</f>
+        <v>819579.18878429406</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
-        <v>849287.20391328097</v>
-      </c>
-      <c r="C13" s="7">
-        <v>658666.03601612139</v>
-      </c>
-      <c r="D13" s="7">
-        <v>888502.28042037482</v>
+      <c r="B13" s="4">
+        <v>843380.31114383624</v>
+      </c>
+      <c r="C13" s="4">
+        <v>654217.23908016318</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B13+'[1]CG aggregates'!B14</f>
+        <v>882595.38765093009</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
-        <v>912828.67688211065</v>
-      </c>
-      <c r="C14" s="7">
-        <v>706534.98697444552</v>
-      </c>
-      <c r="D14" s="7">
-        <v>979445.85072795476</v>
+      <c r="B14" s="4">
+        <v>905771.04719924426</v>
+      </c>
+      <c r="C14" s="4">
+        <v>701261.49667771766</v>
+      </c>
+      <c r="D14" s="4">
+        <f>B14+'[1]CG aggregates'!B15</f>
+        <v>972388.22104508837</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
-        <v>926320.51808569953</v>
-      </c>
-      <c r="C16" s="7">
-        <v>727570.48356269032</v>
-      </c>
-      <c r="D16" s="7">
-        <v>944970.65818269958</v>
+      <c r="B16" s="4">
+        <v>918472.79654721764</v>
+      </c>
+      <c r="C16" s="4">
+        <v>721595.18770560401</v>
+      </c>
+      <c r="D16" s="4">
+        <f>B16+'[1]CG aggregates'!B17</f>
+        <v>937122.9366442177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
-        <v>914680.20979953429</v>
-      </c>
-      <c r="C17" s="7">
-        <v>717295.27262993832</v>
-      </c>
-      <c r="D17" s="7">
-        <v>937790.57297153433</v>
+      <c r="B17" s="4">
+        <v>905749.03666606802</v>
+      </c>
+      <c r="C17" s="4">
+        <v>710684.79708356131</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17+'[1]CG aggregates'!B18</f>
+        <v>928859.39983806806</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7">
-        <v>951249.36885674007</v>
-      </c>
-      <c r="C18" s="7">
-        <v>748113.13546705153</v>
-      </c>
-      <c r="D18" s="7">
-        <v>971543.70734174002</v>
+      <c r="B18" s="4">
+        <v>941829.01198767917</v>
+      </c>
+      <c r="C18" s="4">
+        <v>741248.14445256582</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18+'[1]CG aggregates'!B19</f>
+        <v>962123.35047267913</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7">
-        <v>976467.10590019217</v>
-      </c>
-      <c r="C19" s="7">
-        <v>772246.82941585919</v>
-      </c>
-      <c r="D19" s="7">
-        <v>997078.64674919215</v>
+      <c r="B19" s="4">
+        <v>967134.76444508147</v>
+      </c>
+      <c r="C19" s="4">
+        <v>765446.66479731165</v>
+      </c>
+      <c r="D19" s="4">
+        <f>B19+'[1]CG aggregates'!B20</f>
+        <v>987746.30529408145</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7">
-        <v>1025192.8293834226</v>
-      </c>
-      <c r="C20" s="7">
-        <v>812757.47661403765</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1055037.1927074227</v>
+      <c r="B20" s="4">
+        <v>1025161.5122661697</v>
+      </c>
+      <c r="C20" s="4">
+        <v>812748.20759449585</v>
+      </c>
+      <c r="D20" s="4">
+        <f>B20+'[1]CG aggregates'!B21</f>
+        <v>1055005.8755901696</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7">
-        <v>1051542.0232418734</v>
-      </c>
-      <c r="C21" s="7">
-        <v>836079.31875902123</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1088818.1943148733</v>
+      <c r="B21" s="4">
+        <v>1041585.037911903</v>
+      </c>
+      <c r="C21" s="4">
+        <v>828748.97316653398</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21+'[1]CG aggregates'!B22</f>
+        <v>1078861.2089849031</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7">
-        <v>1116294.7464035004</v>
-      </c>
-      <c r="C22" s="7">
-        <v>887053.24225843139</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1161857.8462745005</v>
+      <c r="B22" s="4">
+        <v>1116096.7168342732</v>
+      </c>
+      <c r="C22" s="4">
+        <v>886900.40287526464</v>
+      </c>
+      <c r="D22" s="4">
+        <f>B22+'[1]CG aggregates'!B23</f>
+        <v>1161659.8167052732</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7">
-        <v>1141089.8431397646</v>
-      </c>
-      <c r="C23" s="7">
-        <v>913595.30168744014</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1188949.2458607645</v>
+      <c r="B23" s="4">
+        <v>1140885.0922039223</v>
+      </c>
+      <c r="C23" s="4">
+        <v>913441.13373661123</v>
+      </c>
+      <c r="D23" s="4">
+        <f>B23+'[1]CG aggregates'!B24</f>
+        <v>1188744.4949249222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7">
-        <v>1178067.578536235</v>
-      </c>
-      <c r="C24" s="7">
-        <v>951723.70502621564</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1232781.428982235</v>
+      <c r="B24" s="4">
+        <v>1175959.263397228</v>
+      </c>
+      <c r="C24" s="4">
+        <v>942107.46426979813</v>
+      </c>
+      <c r="D24" s="4">
+        <f>B24+'[1]CG aggregates'!B25</f>
+        <v>1230673.113843228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1215998.4446844961</v>
+      </c>
+      <c r="C25" s="4">
+        <v>971960.81672412145</v>
+      </c>
+      <c r="D25" s="4">
+        <f>B25+'[1]CG aggregates'!B26</f>
+        <v>1215998.4446844961</v>
       </c>
     </row>
   </sheetData>
@@ -1218,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71C1347-5E75-4519-8281-C6C5016E9046}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G24"/>
+      <selection activeCell="G25" sqref="B3:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1258,494 +1439,517 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>40.238649457375814</v>
-      </c>
-      <c r="C3" s="6">
-        <v>27.496587470879948</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12.187109325513577</v>
-      </c>
-      <c r="E3" s="6">
-        <v>8.8001710674041647</v>
-      </c>
-      <c r="F3" s="6">
-        <v>4.224202220326374</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2.9894690151757768</v>
+      <c r="B3" s="5">
+        <v>0.4027683726447851</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.27521876200277939</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.12197222810136847</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8.8069575945204162E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.2275813179040667E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.081976995503807E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>39.831661207031097</v>
-      </c>
-      <c r="C4" s="6">
-        <v>27.399088847953422</v>
-      </c>
-      <c r="D4" s="6">
-        <v>12.350276009304634</v>
-      </c>
-      <c r="E4" s="6">
-        <v>8.9240897663562038</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4.2444212519976965</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3.085618269301027</v>
+      <c r="B4" s="5">
+        <v>0.39879916137014793</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.2742983596818635</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.1236316632223108</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8.9330238867880093E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.2487246367082648E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.0890334372044626E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>40.606861852627382</v>
-      </c>
-      <c r="C5" s="6">
-        <v>28.215110709381616</v>
-      </c>
-      <c r="D5" s="6">
-        <v>12.904813714598777</v>
-      </c>
-      <c r="E5" s="6">
-        <v>9.3836671467086479</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4.5736892880932256</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3.3631285289156549</v>
+      <c r="B5" s="5">
+        <v>0.4074409795480714</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.28306071593467313</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.12941116355180154</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9.410552853824744E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4.5914616779376569E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3.3776207468692442E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
-        <v>40.612771805963298</v>
-      </c>
-      <c r="C6" s="6">
-        <v>28.301357873089557</v>
-      </c>
-      <c r="D6" s="6">
-        <v>12.990381921762372</v>
-      </c>
-      <c r="E6" s="6">
-        <v>9.4799341715812151</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4.6803822582782333</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3.4466272731861993</v>
+      <c r="B6" s="5">
+        <v>0.40759541184869513</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.28404079293618445</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.13040319293297223</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9.5226202710920402E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.7114888165555188E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.4737086950585055E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <v>40.524946972389735</v>
-      </c>
-      <c r="C7" s="6">
-        <v>28.49357994762024</v>
-      </c>
-      <c r="D7" s="6">
-        <v>13.328891267233891</v>
-      </c>
-      <c r="E7" s="6">
-        <v>9.8122012847997553</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4.8655133197550668</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3.5336815884218589</v>
+      <c r="B7" s="5">
+        <v>0.40591815670834147</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.28539815861218137</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.13351396455845305</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9.8295963384787369E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.8786498934892543E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.5456350102402383E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
-        <v>40.87740576567505</v>
-      </c>
-      <c r="C8" s="6">
-        <v>28.591627909828983</v>
-      </c>
-      <c r="D8" s="6">
-        <v>13.172367929133612</v>
-      </c>
-      <c r="E8" s="6">
-        <v>9.6085555525975934</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4.6574528638156654</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3.3408685437959078</v>
+      <c r="B8" s="5">
+        <v>0.40976003199321831</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.2865934321942627</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.13204011756530798</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9.634226425239012E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.675814423286434E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.372948919382391E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>40.538408518586571</v>
-      </c>
-      <c r="C9" s="6">
-        <v>28.230472942515906</v>
-      </c>
-      <c r="D9" s="6">
-        <v>12.820574792639919</v>
-      </c>
-      <c r="E9" s="6">
-        <v>9.2598682310909819</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4.3873764228162591</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3.1353475808446585</v>
+      <c r="B9" s="5">
+        <v>0.40590144222590613</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.28247096678893507</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.12817618265852779</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9.2591651166065159E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.402144876654257E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.1532687754613695E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>41.105871029390073</v>
-      </c>
-      <c r="C10" s="6">
-        <v>28.720356046286852</v>
-      </c>
-      <c r="D10" s="6">
-        <v>13.143485686821215</v>
-      </c>
-      <c r="E10" s="6">
-        <v>9.5251284871937223</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4.5673545494966392</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3.2922538468922409</v>
+      <c r="B10" s="5">
+        <v>0.41190299859052126</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.28770751129092637</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.13159687712146215</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9.5362308560709347E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4.5800068741066215E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3.3059779423692308E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <v>40.610897302647615</v>
-      </c>
-      <c r="C11" s="6">
-        <v>28.400297682316857</v>
-      </c>
-      <c r="D11" s="6">
-        <v>13.219970723537857</v>
-      </c>
-      <c r="E11" s="6">
-        <v>9.6260889550227819</v>
-      </c>
-      <c r="F11" s="6">
-        <v>4.6753289099711459</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3.4002329242568372</v>
+      <c r="B11" s="5">
+        <v>0.40703029854533929</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.2845383155560734</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.13241135006096166</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9.6431643657644492E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.6932189481633732E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.4176521942951503E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
-        <v>41.411333736282671</v>
-      </c>
-      <c r="C12" s="6">
-        <v>29.402217227387951</v>
-      </c>
-      <c r="D12" s="6">
-        <v>14.143643413460353</v>
-      </c>
-      <c r="E12" s="6">
-        <v>10.405043128688462</v>
-      </c>
-      <c r="F12" s="6">
-        <v>5.1469211445218335</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3.7632974252686182</v>
+      <c r="B12" s="5">
+        <v>0.4150188021873249</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.29444731770778954</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.14160315293304387</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.10426483430562317</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.1789097720264257E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3.7905404284993713E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
-        <v>41.8397971468912</v>
-      </c>
-      <c r="C13" s="6">
-        <v>29.990269820678147</v>
-      </c>
-      <c r="D13" s="6">
-        <v>14.79414515882843</v>
-      </c>
-      <c r="E13" s="6">
-        <v>10.998315100565337</v>
-      </c>
-      <c r="F13" s="6">
-        <v>5.5632659826938138</v>
-      </c>
-      <c r="G13" s="6">
-        <v>4.0884711912246452</v>
+      <c r="B13" s="5">
+        <v>0.41940146160366426</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.30036725309578438</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.14812450066242219</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.11021280364102645</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5.6019547513112937E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4.1252267660029984E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
-        <v>41.986874338476888</v>
-      </c>
-      <c r="C14" s="6">
-        <v>30.316727487030754</v>
-      </c>
-      <c r="D14" s="6">
-        <v>15.223292316837419</v>
-      </c>
-      <c r="E14" s="6">
-        <v>11.434140690035379</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5.9667096717103272</v>
-      </c>
-      <c r="G14" s="6">
-        <v>4.4486590958981553</v>
+      <c r="B14" s="5">
+        <v>0.42094902728437655</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.30363032797290262</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.15241534564418036</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.11462452847408658</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.0161342939018557E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.5057970170262307E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
-        <v>42.389514010514375</v>
-      </c>
-      <c r="C16" s="6">
-        <v>30.614202204279223</v>
-      </c>
-      <c r="D16" s="6">
-        <v>15.695390873326327</v>
-      </c>
-      <c r="E16" s="6">
-        <v>12.027016866566363</v>
-      </c>
-      <c r="F16" s="6">
-        <v>6.5672354868171245</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4.9806237841522183</v>
+      <c r="B16" s="5">
+        <v>0.42560669110173677</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.30692170994995482</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.15707358281525691</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.12039280357622364</v>
+      </c>
+      <c r="F16" s="5">
+        <v>6.6042029783667799E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5.0295068758581231E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
-        <v>40.70905671239084</v>
-      </c>
-      <c r="C17" s="6">
-        <v>28.591367928330698</v>
-      </c>
-      <c r="D17" s="6">
-        <v>13.470099678552238</v>
-      </c>
-      <c r="E17" s="6">
-        <v>9.9189238881353354</v>
-      </c>
-      <c r="F17" s="6">
-        <v>5.0458582482820873</v>
-      </c>
-      <c r="G17" s="6">
-        <v>3.7505191133818787</v>
+      <c r="B17" s="5">
+        <v>0.40696585166383997</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.28520111077375265</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.13369331081849165</v>
+      </c>
+      <c r="E17" s="5">
+        <v>9.8259333300366541E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.9921582260032606E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.7222056148041742E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
-        <v>40.961532004171708</v>
-      </c>
-      <c r="C18" s="6">
-        <v>28.901987802791588</v>
-      </c>
-      <c r="D18" s="6">
-        <v>13.553895937748297</v>
-      </c>
-      <c r="E18" s="6">
-        <v>9.9507685909555086</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5.0336203231234062</v>
-      </c>
-      <c r="G18" s="6">
-        <v>3.7380995495599638</v>
+      <c r="B18" s="5">
+        <v>0.40959817387877151</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.28835546245261851</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.13460481381454029</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9.8686553226279894E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4.995701638144473E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3.7220121104657354E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
-        <v>40.481129174429796</v>
-      </c>
-      <c r="C19" s="6">
-        <v>28.518403109016411</v>
-      </c>
-      <c r="D19" s="6">
-        <v>13.202270288555004</v>
-      </c>
-      <c r="E19" s="6">
-        <v>9.6272101818773628</v>
-      </c>
-      <c r="F19" s="6">
-        <v>4.8072578605935359</v>
-      </c>
-      <c r="G19" s="6">
-        <v>3.5482221300327761</v>
+      <c r="B19" s="5">
+        <v>0.40486378610612495</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.28461942314935978</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.13114480329658576</v>
+      </c>
+      <c r="E19" s="5">
+        <v>9.5462175973243746E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4.7641080206159196E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3.5235189493918628E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
-        <v>41.353164577327682</v>
-      </c>
-      <c r="C20" s="6">
-        <v>29.652854626065789</v>
-      </c>
-      <c r="D20" s="6">
-        <v>14.557726907942252</v>
-      </c>
-      <c r="E20" s="6">
-        <v>10.971406692871545</v>
-      </c>
-      <c r="F20" s="6">
-        <v>5.8483315803687281</v>
-      </c>
-      <c r="G20" s="6">
-        <v>4.4236816132654591</v>
+      <c r="B20" s="5">
+        <v>0.41352260009171105</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.29651770591701354</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.14556503845603502</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.10970133118453419</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.847231034147031E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4.4231495783737848E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
-        <v>41.021729601599986</v>
-      </c>
-      <c r="C21" s="6">
-        <v>29.354310528958166</v>
-      </c>
-      <c r="D21" s="6">
-        <v>14.269130521823831</v>
-      </c>
-      <c r="E21" s="6">
-        <v>10.684357639225645</v>
-      </c>
-      <c r="F21" s="6">
-        <v>5.5953471818674005</v>
-      </c>
-      <c r="G21" s="6">
-        <v>4.2020289855531354</v>
+      <c r="B21" s="5">
+        <v>0.4104008333594017</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.29317323859584826</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.14202820462738949</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.10623762633495915</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5.57185068047946E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4.1966697842815918E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
-        <v>41.322020486045133</v>
-      </c>
-      <c r="C22" s="6">
-        <v>29.88558660468582</v>
-      </c>
-      <c r="D22" s="6">
-        <v>14.948227220390129</v>
-      </c>
-      <c r="E22" s="6">
-        <v>11.378930852552715</v>
-      </c>
-      <c r="F22" s="6">
-        <v>6.1524901669356851</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4.6634865580347729</v>
+      <c r="B22" s="5">
+        <v>0.41324674381022308</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.29887353021666702</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.14948591538865516</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.11379178267753595</v>
+      </c>
+      <c r="F22" s="5">
+        <v>6.1533040811258634E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4.6641741474473294E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
-        <v>40.468691790261254</v>
-      </c>
-      <c r="C23" s="6">
-        <v>28.98947997099085</v>
-      </c>
-      <c r="D23" s="6">
-        <v>14.11397906994924</v>
-      </c>
-      <c r="E23" s="6">
-        <v>10.617925465040345</v>
-      </c>
-      <c r="F23" s="6">
-        <v>5.5945631981359929</v>
-      </c>
-      <c r="G23" s="6">
-        <v>4.2101548648432487</v>
+      <c r="B23" s="5">
+        <v>0.40470346613752833</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.2899015898543984</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.14114166496251934</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.10618090237167666</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5.5951797162838796E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4.2113869772231666E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
-        <v>40.628349144714861</v>
-      </c>
-      <c r="C24" s="6">
-        <v>29.213111819041092</v>
-      </c>
-      <c r="D24" s="6">
-        <v>14.506593827608233</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10.969057501198169</v>
-      </c>
-      <c r="F24" s="6">
-        <v>5.8436666207399863</v>
-      </c>
-      <c r="G24" s="6">
-        <v>4.4368585553547071</v>
+      <c r="B24" s="5">
+        <v>0.4057439286241688</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.29172646677522029</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.14437034421587447</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.10908283029546768</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5.8089518053542656E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>4.4106669886714939E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.40434081213446377</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.29017145647729692</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.14298539081037101</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.108172919092848</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5.7980567315212887E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4.4107671191306534E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1755,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677A3F08-2064-478E-BD14-112C99177F39}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G24"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="B3:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1795,494 +1999,517 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>36.519710400973558</v>
-      </c>
-      <c r="C3" s="6">
-        <v>24.381691079365904</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10.200148404278707</v>
-      </c>
-      <c r="E3" s="6">
-        <v>7.2460457177085278</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3.3995811537471909</v>
-      </c>
-      <c r="G3" s="6">
-        <v>2.3921695530320535</v>
+      <c r="B3" s="5">
+        <v>0.36556482065636536</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.24406700714325522</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.10208650264916323</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7.2523234253605753E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.4023156106411982E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.4598622027134111E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>36.319395113404951</v>
-      </c>
-      <c r="C4" s="6">
-        <v>24.406222892970035</v>
-      </c>
-      <c r="D4" s="6">
-        <v>10.420223446938913</v>
-      </c>
-      <c r="E4" s="6">
-        <v>7.4417232416041683</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3.5249903553203916</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2.5787135352231561</v>
+      <c r="B4" s="5">
+        <v>0.36366429198260292</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.2443584524350465</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.10431739500555209</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7.4496368833322821E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3.5312539429654961E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.5812184522093766E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>36.914423322502529</v>
-      </c>
-      <c r="C5" s="6">
-        <v>24.958180591006354</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10.76641945984505</v>
-      </c>
-      <c r="E5" s="6">
-        <v>7.7118506195463823</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3.688014832190794</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2.6993255170704655</v>
+      <c r="B5" s="5">
+        <v>0.3704548036093307</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.25045996530297798</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.10798409110599469</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7.7351055067774066E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.7029095927935955E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2.7115582357609788E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
-        <v>36.836292750943933</v>
-      </c>
-      <c r="C6" s="6">
-        <v>24.920421087262447</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10.774856518489644</v>
-      </c>
-      <c r="E6" s="6">
-        <v>7.7381302838119232</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3.7344479267574386</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2.7327511426963289</v>
+      <c r="B6" s="5">
+        <v>0.36997549298809612</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.2503620762563632</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.10830130791760793</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7.7842705773147974E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.7667271192244715E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.7607611362642937E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <v>36.653641864597674</v>
-      </c>
-      <c r="C7" s="6">
-        <v>24.960684932246018</v>
-      </c>
-      <c r="D7" s="6">
-        <v>11.034413909776221</v>
-      </c>
-      <c r="E7" s="6">
-        <v>8.0011186228653397</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3.8798122820090346</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2.8045192321410797</v>
+      <c r="B7" s="5">
+        <v>0.36726242764835237</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.25011878395521014</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.11058367757175784</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8.019703772336266E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.8925480658246032E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.8157083912726758E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
-        <v>36.839406144766279</v>
-      </c>
-      <c r="C8" s="6">
-        <v>24.926650320418684</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10.880267794563471</v>
-      </c>
-      <c r="E8" s="6">
-        <v>7.833354514597862</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3.738040273711476</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2.6912376702580234</v>
+      <c r="B8" s="5">
+        <v>0.36946713020911942</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.25000722799368424</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.10914759885496271</v>
+      </c>
+      <c r="E8" s="5">
+        <v>7.8608480369912498E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.7570587024512193E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.706551939078684E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>36.523061955968558</v>
-      </c>
-      <c r="C9" s="6">
-        <v>24.602477725745796</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10.60426696628468</v>
-      </c>
-      <c r="E9" s="6">
-        <v>7.5683581560282747</v>
-      </c>
-      <c r="F9" s="6">
-        <v>3.5447199002849845</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2.5336722475114741</v>
+      <c r="B9" s="5">
+        <v>0.36582951105882067</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.24629022538140402</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.10605486124985714</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7.5702437511748752E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.557526011254273E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.5483269749844904E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>37.05619545982853</v>
-      </c>
-      <c r="C10" s="6">
-        <v>25.075187329246791</v>
-      </c>
-      <c r="D10" s="6">
-        <v>10.907310167634437</v>
-      </c>
-      <c r="E10" s="6">
-        <v>7.8232677592597168</v>
-      </c>
-      <c r="F10" s="6">
-        <v>3.7249146974482827</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2.6916042600454086</v>
+      <c r="B10" s="5">
+        <v>0.37139619095893628</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.25125731096389547</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.1092218153307032</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7.8333408605285523E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.7356180756188413E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2.7027231518010033E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <v>36.602706636411412</v>
-      </c>
-      <c r="C11" s="6">
-        <v>24.761907686231176</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10.949642129612661</v>
-      </c>
-      <c r="E11" s="6">
-        <v>7.8830271918361916</v>
-      </c>
-      <c r="F11" s="6">
-        <v>3.7846525533989848</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2.7475129565273977</v>
+      <c r="B11" s="5">
+        <v>0.36695323426783372</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.24817198161034873</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.10968774503105658</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7.8976441360315439E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.7988362628366294E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2.7611193247507628E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
-        <v>37.353108421949216</v>
-      </c>
-      <c r="C12" s="6">
-        <v>25.649922267925358</v>
-      </c>
-      <c r="D12" s="6">
-        <v>11.763563652240187</v>
-      </c>
-      <c r="E12" s="6">
-        <v>8.5675479226732758</v>
-      </c>
-      <c r="F12" s="6">
-        <v>4.1963370229460013</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3.0657975937691817</v>
+      <c r="B12" s="5">
+        <v>0.37449443641000618</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.25698850615174418</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.11780506335478148</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8.5867793988773339E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.2221144749441594E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3.0875375292121615E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
-        <v>37.818267053867366</v>
-      </c>
-      <c r="C13" s="6">
-        <v>26.242494564937818</v>
-      </c>
-      <c r="D13" s="6">
-        <v>12.406768287118989</v>
-      </c>
-      <c r="E13" s="6">
-        <v>9.1455081037097692</v>
-      </c>
-      <c r="F13" s="6">
-        <v>4.5873176674175831</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3.3622106486148109</v>
+      <c r="B13" s="5">
+        <v>0.37926223985180418</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.26295981663199386</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.12424444820748519</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9.1653522407054086E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4.6180440992785315E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3.3916344472914382E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
-        <v>37.871665119284167</v>
-      </c>
-      <c r="C14" s="6">
-        <v>26.447058715680335</v>
-      </c>
-      <c r="D14" s="6">
-        <v>12.731728791798194</v>
-      </c>
-      <c r="E14" s="6">
-        <v>9.4798504936275894</v>
-      </c>
-      <c r="F14" s="6">
-        <v>4.9034425321942976</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3.6428203186851529</v>
+      <c r="B14" s="5">
+        <v>0.37990213190038541</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.26500896068321961</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.12747884950392618</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9.5026235348823929E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4.9418745631782189E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3.6841033507574297E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
-        <v>38.101499634134633</v>
-      </c>
-      <c r="C16" s="6">
-        <v>26.580147270887718</v>
-      </c>
-      <c r="D16" s="6">
-        <v>12.986958952618894</v>
-      </c>
-      <c r="E16" s="6">
-        <v>9.8469885383688176</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5.3356700634127296</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4.0489230385635926</v>
+      <c r="B16" s="5">
+        <v>0.38282759301428565</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.26669136446157798</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.13001714148244214</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9.8592655310078353E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5.3654234102931395E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.0872557963336109E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
-        <v>36.227981253133798</v>
-      </c>
-      <c r="C17" s="6">
-        <v>24.354012854792629</v>
-      </c>
-      <c r="D17" s="6">
-        <v>10.494835506727503</v>
-      </c>
-      <c r="E17" s="6">
-        <v>7.4983556326133272</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3.6567352678632496</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2.7029683170658991</v>
+      <c r="B17" s="5">
+        <v>0.36242134030771117</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.24314798921083891</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.10423922528038861</v>
+      </c>
+      <c r="E17" s="5">
+        <v>7.431516770518988E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3.6154678632493907E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.6806453292339414E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
-        <v>36.026671375241378</v>
-      </c>
-      <c r="C18" s="6">
-        <v>24.251591922312198</v>
-      </c>
-      <c r="D18" s="6">
-        <v>10.371554565755352</v>
-      </c>
-      <c r="E18" s="6">
-        <v>7.4062778246022321</v>
-      </c>
-      <c r="F18" s="6">
-        <v>3.6053922429215284</v>
-      </c>
-      <c r="G18" s="6">
-        <v>2.6580487576500098</v>
+      <c r="B18" s="5">
+        <v>0.36055204766790011</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.24220413668297253</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.1030779317312597</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7.3500891867907481E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3.5797382385210033E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2.6477005391416418E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
-        <v>35.435686051684449</v>
-      </c>
-      <c r="C19" s="6">
-        <v>23.755745890562999</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10.009226035176754</v>
-      </c>
-      <c r="E19" s="6">
-        <v>7.0890734794475589</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3.3979388234766144</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2.495355268762371</v>
+      <c r="B19" s="5">
+        <v>0.35475378943558589</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.23738098637944208</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9.955123132182328E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>7.0388413919377016E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3.3705985041486218E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2.4795171827380544E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
-        <v>36.056374013633722</v>
-      </c>
-      <c r="C20" s="6">
-        <v>24.635793930028388</v>
-      </c>
-      <c r="D20" s="6">
-        <v>11.144068678185315</v>
-      </c>
-      <c r="E20" s="6">
-        <v>8.2335598958840759</v>
-      </c>
-      <c r="F20" s="6">
-        <v>4.2996403692879221</v>
-      </c>
-      <c r="G20" s="6">
-        <v>3.2528286222654206</v>
+      <c r="B20" s="5">
+        <v>0.36055339847880652</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.24634918483973775</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.1114303851867389</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8.2325272288453002E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4.2990745151211734E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3.2522839375087799E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
-        <v>35.766986776915829</v>
-      </c>
-      <c r="C21" s="6">
-        <v>24.373304990320243</v>
-      </c>
-      <c r="D21" s="6">
-        <v>10.902333135398569</v>
-      </c>
-      <c r="E21" s="6">
-        <v>8.0078682549471427</v>
-      </c>
-      <c r="F21" s="6">
-        <v>4.1186806929639825</v>
-      </c>
-      <c r="G21" s="6">
-        <v>3.0964547390114787</v>
+      <c r="B21" s="5">
+        <v>0.35814486536281082</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.24364221235210543</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.10856869706303109</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7.9650010623692771E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>4.1002961063236469E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3.0907735907419957E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
-        <v>35.924396671193506</v>
-      </c>
-      <c r="C22" s="6">
-        <v>24.745684772135508</v>
-      </c>
-      <c r="D22" s="6">
-        <v>11.433667553225719</v>
-      </c>
-      <c r="E22" s="6">
-        <v>8.5560431671841179</v>
-      </c>
-      <c r="F22" s="6">
-        <v>4.5538103651597535</v>
-      </c>
-      <c r="G22" s="6">
-        <v>3.450870955067336</v>
+      <c r="B22" s="5">
+        <v>0.35927140956568138</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.2474740782389494</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.11434062728162535</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8.5563822045223989E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4.5544503053657773E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3.4513728994759497E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
-        <v>35.271301173611981</v>
-      </c>
-      <c r="C23" s="6">
-        <v>24.002738625851638</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10.714686448402064</v>
-      </c>
-      <c r="E23" s="6">
-        <v>7.9105562767786886</v>
-      </c>
-      <c r="F23" s="6">
-        <v>4.1136240130555146</v>
-      </c>
-      <c r="G23" s="6">
-        <v>3.104980243844131</v>
+      <c r="B23" s="5">
+        <v>0.35273320586718504</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.24003495018666471</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.1071479955688666</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7.9106569793041828E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4.1141398488293915E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3.1057215073327125E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
-        <v>35.175148455512847</v>
-      </c>
-      <c r="C24" s="6">
-        <v>24.010956597880977</v>
-      </c>
-      <c r="D24" s="6">
-        <v>10.928029616428191</v>
-      </c>
-      <c r="E24" s="6">
-        <v>8.1105226199284584</v>
-      </c>
-      <c r="F24" s="6">
-        <v>4.2733644653872629</v>
-      </c>
-      <c r="G24" s="6">
-        <v>3.2469681099663132</v>
+      <c r="B24" s="5">
+        <v>0.35339561636604711</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.2413196311968657</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.1094065615023684</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8.1146547836307897E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4.2821711342144381E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3.2653492527850145E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.35133665472751074</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.2392582912649896</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.10796981968239935</v>
+      </c>
+      <c r="E25" s="5">
+        <v>8.0195780098407818E-2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4.2613512011533329E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3.2525075847437239E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2294,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5AA7C3-FB7F-4983-AAAA-7EEF196A1E6E}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2323,302 +2550,302 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>14.070107636349142</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5.4769982178398688</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2.1702854322229599</v>
+      <c r="B3" s="5">
+        <v>0.14069675427011399</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.4768299739405515E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.1702187648133271E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>14.15642437739948</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5.54040682027094</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.2160337853221361</v>
+      <c r="B4" s="5">
+        <v>0.14156450986220651</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.5404172341784623E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.21603795064278E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>15.56590974068137</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6.931938721899666</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3.4697240133409442</v>
+      <c r="B5" s="5">
+        <v>0.15617023129576404</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.9547009558835249E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.4811174593911184E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
-        <v>15.258274006595791</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6.5846733819791758</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3.0346658737304941</v>
+      <c r="B6" s="5">
+        <v>0.15309670296098207</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.6068533336088794E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.0448879057717287E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <v>14.664873998302296</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6.0149749441895883</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2.3832004230393857</v>
+      <c r="B7" s="5">
+        <v>0.1469061067368323</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.025531152008419E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.3873829107759027E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
-        <v>13.664902783278675</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5.1103359199761567</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.7826476380430927</v>
+      <c r="B8" s="5">
+        <v>0.13708422414601112</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.1266111865256786E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.7883249684431581E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>14.557959596520117</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5.9390258583142472</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2.3909372766487413</v>
+      <c r="B9" s="5">
+        <v>0.1463901237399069</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.9720919303894164E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.4042490395881463E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>14.338212462565112</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5.6630879771346372</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2.2232281496327553</v>
+      <c r="B10" s="5">
+        <v>0.14394135223367885</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.6851754943322792E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.2318993181167281E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <v>14.761596052271628</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5.9921235044303174</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2.4010724748152996</v>
+      <c r="B11" s="5">
+        <v>0.14834457839592446</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.021700037132733E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.4129239325697566E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
-        <v>15.471801883971761</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6.7821733759780054</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2.9433208082046911</v>
+      <c r="B12" s="5">
+        <v>0.15567328923011242</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.8240483266604313E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.961493657356952E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
-        <v>16.906682945069651</v>
-      </c>
-      <c r="C13" s="6">
-        <v>7.9731102832788032</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3.7228258117042183</v>
+      <c r="B13" s="5">
+        <v>0.1701983327945937</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.0264714362388634E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3.7477413428487739E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
-        <v>18.917874203818943</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.861528626721805</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4.9688713725168627</v>
+      <c r="B14" s="5">
+        <v>0.19055180834676844</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9.9331039663321366E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.0049356247671928E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
-        <v>16.720095870897662</v>
-      </c>
-      <c r="C16" s="6">
-        <v>7.9568608134987029</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3.7440315943820206</v>
+      <c r="B16" s="5">
+        <v>0.16860114486770406</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8.0234937231662459E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.7753851300122591E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
-        <v>14.534161883085728</v>
-      </c>
-      <c r="C17" s="6">
-        <v>6.1175705593002805</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2.5122879968121774</v>
+      <c r="B17" s="5">
+        <v>0.14673910822645683</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.1763922516154278E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.5364441598058129E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
-        <v>14.379178100204667</v>
-      </c>
-      <c r="C18" s="6">
-        <v>5.9554706147304364</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2.3941280072352225</v>
+      <c r="B18" s="5">
+        <v>0.1451996772881223</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.01378190972853E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.4175694300083928E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
-        <v>14.091165271473489</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5.7838968057357736</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2.3067387988888988</v>
+      <c r="B19" s="5">
+        <v>0.14224300232453815</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5.8385437324242812E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2.3285331341383469E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
-        <v>15.715085794703237</v>
-      </c>
-      <c r="C20" s="6">
-        <v>7.0651537704293084</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2.986624568100718</v>
+      <c r="B20" s="5">
+        <v>0.15715552286118936</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7.0653634946158353E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.9867132239783337E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
-        <v>16.357184416087705</v>
-      </c>
-      <c r="C21" s="6">
-        <v>7.4521164712035732</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3.1906153094603416</v>
+      <c r="B21" s="5">
+        <v>0.16508147527852421</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7.5208932645140114E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3.2200620163817688E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
-        <v>17.334306485581649</v>
-      </c>
-      <c r="C22" s="6">
-        <v>8.2531611166952548</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3.5847758943618455</v>
+      <c r="B22" s="5">
+        <v>0.1733726148600159</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8.2545680431613325E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.5853869954913915E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
-        <v>16.426268882370039</v>
-      </c>
-      <c r="C23" s="6">
-        <v>7.7076460848970321</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3.425713935375994</v>
+      <c r="B23" s="5">
+        <v>0.16429098164810815</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7.7089736601293563E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.4263039849090862E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
-        <v>17.245555051516245</v>
-      </c>
-      <c r="C24" s="6">
-        <v>8.2658610524435812</v>
-      </c>
-      <c r="D24" s="6">
-        <v>3.6811067179577011</v>
+      <c r="B24" s="5">
+        <v>0.17275099098905197</v>
+      </c>
+      <c r="C24" s="5">
+        <v>8.2800216283087466E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.6874129685245428E-2</v>
       </c>
     </row>
   </sheetData>
